--- a/document/znd/工作记录.xlsx
+++ b/document/znd/工作记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,20 @@
  setvbuf(stdout, NULL, _IONBF, 0);
 }
 InitConsoleWindow();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试redisdatabus接口调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写查询记录调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 调试过程中出现log4j，error日志，不知什么缘故：
+2018-02-01 12:38:29.313 ERROR 9552 --- [           main] io.netty.util.ResourceLeakDetector       : LEAK: HashedWheelTimer.release() was not called before it's garbage-collected. Enable advanced leak reporting to find out where the leak occurred. To enable advanced leak reporting, specify the JVM option '-Dio.netty.leakDetection.level=advanced' or call ResourceLeakDetector.setLevel() See http://netty.io/wiki/reference-counted-objects.html for more information.
+2, RTableOperation类最好增加返回表记录数和按偏移取记录接口(offset, limit)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,16 +452,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="84.44140625" customWidth="1"/>
     <col min="5" max="5" width="58.109375" customWidth="1"/>
   </cols>
@@ -491,6 +509,21 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/znd/工作记录.xlsx
+++ b/document/znd/工作记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,14 @@
     <t>1, 调试过程中出现log4j，error日志，不知什么缘故：
 2018-02-01 12:38:29.313 ERROR 9552 --- [           main] io.netty.util.ResourceLeakDetector       : LEAK: HashedWheelTimer.release() was not called before it's garbage-collected. Enable advanced leak reporting to find out where the leak occurred. To enable advanced leak reporting, specify the JVM option '-Dio.netty.leakDetection.level=advanced' or call ResourceLeakDetector.setLevel() See http://netty.io/wiki/reference-counted-objects.html for more information.
 2, RTableOperation类最好增加返回表记录数和按偏移取记录接口(offset, limit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ei-ads-server模块搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要定位是读取配置库中的节点信息和应用信息，并加载到缓存中。节点和应用状态，增删节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,13 +460,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -467,10 +475,10 @@
     <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="84.44140625" customWidth="1"/>
-    <col min="5" max="5" width="58.109375" customWidth="1"/>
+    <col min="5" max="5" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,6 +531,17 @@
         <v>11</v>
       </c>
       <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/document/znd/工作记录.xlsx
+++ b/document/znd/工作记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,34 @@
   </si>
   <si>
     <t>主要定位是读取配置库中的节点信息和应用信息，并加载到缓存中。节点和应用状态，增删节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试buffer和client接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠性计算除了与swi, dat, xml三个文件相关，还与其他数据文件相关，具体哪些，还得进一步调查。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,13 +488,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -495,52 +522,80 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>43109</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="262.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:5" ht="234.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>43110</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>43132</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E5" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>43166</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43213</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
